--- a/public/templates/families.xlsx
+++ b/public/templates/families.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aacalderon\Temp\Datos Kapatax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A179F14-3CD0-48FA-95DC-26A01EEAD5FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22C7B56-56F3-437B-A74E-87ECAA59E553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0CFA45D6-CC81-4B94-954F-6ACA2177D1FE}"/>
+    <workbookView xWindow="20370" yWindow="-4635" windowWidth="29040" windowHeight="15840" xr2:uid="{0CFA45D6-CC81-4B94-954F-6ACA2177D1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -1481,7 +1481,7 @@
   <dimension ref="A1:B207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
